--- a/sua_planilha/modelo_planilha.xlsx
+++ b/sua_planilha/modelo_planilha.xlsx
@@ -4,7 +4,6 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="notas" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="notas_sem_formato" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>matricula</t>
   </si>
@@ -44,29 +43,98 @@
     <t>Mario</t>
   </si>
   <si>
+    <t>Josivan</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>Sibelle</t>
+  </si>
+  <si>
+    <t>Neuza</t>
+  </si>
+  <si>
+    <t>Claúdia</t>
+  </si>
+  <si>
+    <t>Joana</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
     <t>Carlos</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Feminino</t>
-  </si>
-  <si>
-    <t>Cibele</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Joana</t>
+    <t>Elderson</t>
+  </si>
+  <si>
+    <t>Duarte</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Adriano</t>
+  </si>
+  <si>
+    <t>Cirilo</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Laylla</t>
+  </si>
+  <si>
+    <t>Cleber</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Emanuelly</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Isabelly</t>
+  </si>
+  <si>
+    <t>Raissa</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Renata</t>
+  </si>
+  <si>
+    <t>Elias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -78,28 +146,16 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
-        <bgColor rgb="FFD0E0E3"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -269,20 +325,6 @@
         <color rgb="FF284E3F"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -330,6 +372,21 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -345,19 +402,6 @@
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -415,12 +459,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G17" displayName="model" name="model" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G33" displayName="model" name="model" id="1">
   <tableColumns count="7">
     <tableColumn name="matricula" id="1"/>
     <tableColumn name="nome" id="2"/>
@@ -675,13 +715,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="7">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" s="7">
-        <v>9.0</v>
+        <v>8.5</v>
       </c>
       <c r="F2" s="7">
-        <v>8.0</v>
+        <v>6.5</v>
       </c>
       <c r="G2" s="8">
         <v>9.0</v>
@@ -698,13 +738,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="12">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E3" s="12">
-        <v>9.0</v>
+        <v>6.3</v>
       </c>
       <c r="F3" s="12">
-        <v>8.0</v>
+        <v>7.6</v>
       </c>
       <c r="G3" s="13">
         <v>10.0</v>
@@ -721,16 +761,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" s="7">
-        <v>9.0</v>
+        <v>7.6</v>
       </c>
       <c r="F4" s="7">
-        <v>4.0</v>
+        <v>8.5</v>
       </c>
       <c r="G4" s="8">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -738,22 +778,22 @@
         <v>123456.0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="12">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" s="12">
-        <v>9.0</v>
+        <v>5.4</v>
       </c>
       <c r="F5" s="12">
-        <v>8.0</v>
+        <v>9.6</v>
       </c>
       <c r="G5" s="13">
-        <v>9.0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6">
@@ -761,22 +801,22 @@
         <v>123456.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E6" s="7">
-        <v>3.0</v>
+        <v>8.2</v>
       </c>
       <c r="F6" s="7">
-        <v>8.0</v>
+        <v>7.5</v>
       </c>
       <c r="G6" s="8">
-        <v>9.0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="7">
@@ -784,22 +824,22 @@
         <v>123456.0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="12">
         <v>8.0</v>
       </c>
       <c r="E7" s="12">
-        <v>3.0</v>
+        <v>6.7</v>
       </c>
       <c r="F7" s="12">
-        <v>8.0</v>
+        <v>8.7</v>
       </c>
       <c r="G7" s="13">
-        <v>9.0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="8">
@@ -807,22 +847,22 @@
         <v>123456.0</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" s="7">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E8" s="7">
-        <v>3.0</v>
+        <v>7.9</v>
       </c>
       <c r="F8" s="7">
-        <v>8.0</v>
+        <v>9.6</v>
       </c>
       <c r="G8" s="8">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
@@ -830,22 +870,22 @@
         <v>123456.0</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="12">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E9" s="12">
         <v>9.0</v>
       </c>
       <c r="F9" s="12">
-        <v>8.0</v>
+        <v>5.6</v>
       </c>
       <c r="G9" s="13">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
@@ -853,22 +893,22 @@
         <v>123456.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
         <v>8.0</v>
       </c>
       <c r="E10" s="7">
-        <v>9.0</v>
+        <v>6.5</v>
       </c>
       <c r="F10" s="7">
-        <v>8.0</v>
+        <v>4.3</v>
       </c>
       <c r="G10" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
@@ -876,22 +916,22 @@
         <v>123456.0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="12">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E11" s="12">
-        <v>9.0</v>
+        <v>7.6</v>
       </c>
       <c r="F11" s="12">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="G11" s="13">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="12">
@@ -899,22 +939,22 @@
         <v>123456.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E12" s="7">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F12" s="7">
-        <v>8.0</v>
+        <v>6.7</v>
       </c>
       <c r="G12" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
@@ -922,22 +962,22 @@
         <v>123456.0</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="12">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E13" s="12">
-        <v>9.0</v>
+        <v>5.4</v>
       </c>
       <c r="F13" s="12">
-        <v>8.0</v>
+        <v>8.6</v>
       </c>
       <c r="G13" s="13">
-        <v>9.0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="14">
@@ -945,7 +985,7 @@
         <v>123456.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
@@ -954,13 +994,13 @@
         <v>6.0</v>
       </c>
       <c r="E14" s="7">
-        <v>9.0</v>
+        <v>8.7</v>
       </c>
       <c r="F14" s="7">
-        <v>8.0</v>
+        <v>3.4</v>
       </c>
       <c r="G14" s="8">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
@@ -968,7 +1008,7 @@
         <v>123456.0</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>8</v>
@@ -977,13 +1017,13 @@
         <v>8.0</v>
       </c>
       <c r="E15" s="12">
-        <v>9.0</v>
+        <v>9.5</v>
       </c>
       <c r="F15" s="12">
-        <v>8.0</v>
+        <v>6.7</v>
       </c>
       <c r="G15" s="13">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
@@ -991,22 +1031,22 @@
         <v>123456.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E16" s="7">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="F16" s="7">
-        <v>8.0</v>
+        <v>7.8</v>
       </c>
       <c r="G16" s="8">
-        <v>9.0</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="17">
@@ -1014,31 +1054,399 @@
         <v>123456.0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="17">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E17" s="17">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="F17" s="17">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G17" s="18">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4">
+        <v>145823.0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9">
+        <v>198207.0</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="F19" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="G19" s="13">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4">
+        <v>203456.0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9">
+        <v>211980.0</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="F21" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="G21" s="13">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4">
+        <v>187652.0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9">
+        <v>128972.0</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4">
+        <v>123654.0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9">
+        <v>112678.0</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4">
+        <v>113789.0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="F26" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="G26" s="8">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9">
+        <v>142357.0</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4">
+        <v>142647.0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9">
+        <v>143590.0</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4">
+        <v>111534.0</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9">
+        <v>100545.0</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="E31" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="F31" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="G31" s="13">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>101200.0</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="7">
+        <v>9.0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="F32" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="G32" s="8">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="19">
+        <v>110450.0</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="22">
+        <v>10.0</v>
+      </c>
+      <c r="E33" s="22">
+        <v>9.0</v>
+      </c>
+      <c r="F33" s="22">
+        <v>9.0</v>
+      </c>
+      <c r="G33" s="23">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A17 D2:G17">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A33 D2:G33">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B17"/>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C17">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B2:B33"/>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C33">
       <formula1>"Masculino,Feminino"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1047,203 +1455,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="20">
-        <v>123456.0</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>9.0</v>
-      </c>
-      <c r="F5" s="20">
-        <v>8.0</v>
-      </c>
-      <c r="G5" s="20">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>